--- a/src/earn/xlsx/miningCfg.xlsx
+++ b/src/earn/xlsx/miningCfg.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\back_pt\wallet_game\src\earn\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>LR</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,31 +48,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1">
+    <comment ref="B25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>#[primary=true]</t>
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="1">
+    <comment ref="B54" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>#[primary=true]</t>
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="2">
+    <comment ref="B62" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,13 +84,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1">
+    <comment ref="B63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>#[primary=true]</t>
         </r>
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -230,14 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,150 +269,28 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,198 +305,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -627,251 +318,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,61 +356,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1248,19 +653,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A3:H66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
@@ -1271,7 +676,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>200101</v>
       </c>
@@ -1345,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>200102</v>
       </c>
@@ -1359,7 +764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>200201</v>
       </c>
@@ -1376,7 +781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>200202</v>
       </c>
@@ -1390,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>200203</v>
       </c>
@@ -1404,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>200301</v>
       </c>
@@ -1421,7 +826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>200302</v>
       </c>
@@ -1435,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>200303</v>
       </c>
@@ -1449,7 +854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>200304</v>
       </c>
@@ -1463,78 +868,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1543,7 +939,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1552,118 +948,110 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="5">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5">
         <v>200101</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>1601101</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>4</v>
       </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5">
-        <v>200102</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1601201</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="5">
-        <v>200103</v>
+        <v>200102</v>
       </c>
       <c r="C28" s="5">
-        <v>1601301</v>
+        <v>1601201</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1674,13 +1062,13 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="5">
-        <v>200104</v>
+        <v>200103</v>
       </c>
       <c r="C29" s="5">
-        <v>1601401</v>
+        <v>1601301</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1691,34 +1079,30 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="3">
-        <v>200201</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1601101</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="B30" s="5">
+        <v>200104</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1601401</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
-        <v>200202</v>
+        <v>200201</v>
       </c>
       <c r="C31" s="3">
-        <v>1601201</v>
+        <v>1601101</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -1726,16 +1110,20 @@
       <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
-        <v>200203</v>
+        <v>200202</v>
       </c>
       <c r="C32" s="3">
-        <v>1601301</v>
+        <v>1601201</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -1746,13 +1134,13 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
-        <v>200204</v>
+        <v>200203</v>
       </c>
       <c r="C33" s="3">
-        <v>1601401</v>
+        <v>1601301</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -1763,16 +1151,24 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="B34" s="3">
+        <v>200204</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1601401</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1781,7 +1177,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1790,7 +1186,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1799,7 +1195,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1808,7 +1204,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1817,7 +1213,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1826,7 +1222,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1835,16 +1231,16 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1853,7 +1249,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1862,7 +1258,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1871,7 +1267,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1880,7 +1276,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1889,7 +1285,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1898,7 +1294,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1907,113 +1303,98 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3"/>
-      <c r="B55" s="8">
-        <v>300101</v>
-      </c>
-      <c r="C55" s="8">
-        <v>321000101</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8">
-        <v>4</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="8">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="C56" s="8">
-        <v>321000201</v>
+        <v>321000101</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -2021,19 +1402,23 @@
       <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="8">
+        <v>4</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
       <c r="H56" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="8">
-        <v>300103</v>
+        <v>300102</v>
       </c>
       <c r="C57" s="8">
-        <v>321000301</v>
+        <v>321000201</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -2044,16 +1429,16 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="8">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="C58" s="8">
-        <v>321000401</v>
+        <v>321000301</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -2064,104 +1449,103 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="8">
+        <v>300104</v>
+      </c>
+      <c r="C59" s="8">
+        <v>321000401</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
-      <c r="B64" s="5">
-        <v>401101</v>
-      </c>
-      <c r="C64" s="9">
-        <v>322000001</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
-        <v>5</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="5">
-        <v>401102</v>
-      </c>
-      <c r="C65" s="5">
-        <v>410101</v>
+        <v>401101</v>
+      </c>
+      <c r="C65" s="9">
+        <v>322000001</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -2169,18 +1553,20 @@
       <c r="E65" s="5">
         <v>1</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5">
+        <v>5</v>
+      </c>
       <c r="G65" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="5">
-        <v>401103</v>
+        <v>401102</v>
       </c>
       <c r="C66" s="5">
-        <v>310101</v>
+        <v>410101</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -2190,13 +1576,32 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5">
+        <v>401103</v>
+      </c>
+      <c r="C67" s="5">
+        <v>310101</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
         <v>1250</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/earn/xlsx/miningCfg.xlsx
+++ b/src/earn/xlsx/miningCfg.xlsx
@@ -1328,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A3:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:6">
